--- a/excels/lua_items.xlsx
+++ b/excels/lua_items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>名字</t>
   </si>
@@ -34,7 +34,10 @@
     <t>共享</t>
   </si>
   <si>
-    <t>可否购买</t>
+    <t>商店标签</t>
+  </si>
+  <si>
+    <t>属性</t>
   </si>
   <si>
     <t>永久物品</t>
@@ -130,15 +133,24 @@
     <t>ItemShareability</t>
   </si>
   <si>
-    <t>ItemPurchasable</t>
+    <t>ItemShopTags</t>
+  </si>
+  <si>
+    <t>ItemQuality</t>
   </si>
   <si>
     <t>ItemPermanent</t>
   </si>
   <si>
+    <t>ItemRequiresCharges</t>
+  </si>
+  <si>
     <t>ItemInitialCharges</t>
   </si>
   <si>
+    <t>ItemDroppable</t>
+  </si>
+  <si>
     <t>ItemStackable</t>
   </si>
   <si>
@@ -175,12 +187,15 @@
     <t>SpellImmunityType</t>
   </si>
   <si>
-    <t>item_kv_generator_test</t>
+    <t>item_book_ice_magic</t>
   </si>
   <si>
     <t>item_lua</t>
   </si>
   <si>
+    <t>items/item_book_ice_magic</t>
+  </si>
+  <si>
     <t>damage 0.1 0.2 0.3 0.4</t>
   </si>
   <si>
@@ -190,13 +205,22 @@
     <t>1000 2000 30000 40000</t>
   </si>
   <si>
-    <t xml:space="preserve">1 2 3 4 </t>
-  </si>
-  <si>
-    <t>1 1 1 1</t>
-  </si>
-  <si>
-    <t/>
+    <t>ITEM_FULLY_SHAREABLE</t>
+  </si>
+  <si>
+    <t>consumable</t>
+  </si>
+  <si>
+    <t>item_tome_of_knowledge</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TEAM_FRIENDLY</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_HERO</t>
   </si>
 </sst>
 </file>
@@ -214,13 +238,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -252,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -260,28 +284,40 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -586,47 +622,50 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="33.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="13" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="10" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="10" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="10" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +688,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -661,162 +700,178 @@
       <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3"/>
+      <c r="U1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1"/>
+      <c r="W1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="M2" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="Q2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="R2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="S2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="U2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="V2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="W2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="X2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Y2" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="Z2" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="AA2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF2" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -825,32 +880,53 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="6">
-        <v>2</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="O3" s="8">
+        <v>30</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0</v>
+      </c>
+      <c r="T3" s="8">
+        <v>1</v>
+      </c>
+      <c r="U3" s="8">
+        <v>1</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1</v>
+      </c>
+      <c r="W3" s="8">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="2"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
+      <c r="AC3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/lua_items.xlsx
+++ b/excels/lua_items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>名字</t>
   </si>
@@ -187,22 +187,13 @@
     <t>SpellImmunityType</t>
   </si>
   <si>
-    <t>item_book_ice_magic</t>
+    <t>item_book_basic_fitness</t>
   </si>
   <si>
     <t>item_lua</t>
   </si>
   <si>
-    <t>items/item_book_ice_magic</t>
-  </si>
-  <si>
-    <t>damage 0.1 0.2 0.3 0.4</t>
-  </si>
-  <si>
-    <t>1 1 2 3 4</t>
-  </si>
-  <si>
-    <t>1000 2000 30000 40000</t>
+    <t>items/books/item_book_basic_fitness</t>
   </si>
   <si>
     <t>ITEM_FULLY_SHAREABLE</t>
@@ -221,6 +212,36 @@
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO</t>
+  </si>
+  <si>
+    <t>item_book_basic_magic</t>
+  </si>
+  <si>
+    <t>items/books/item_book_basic_magic</t>
+  </si>
+  <si>
+    <t>item_book_necromancer_collection</t>
+  </si>
+  <si>
+    <t>items/books/item_book_necromancer_collection</t>
+  </si>
+  <si>
+    <t>item_book_swordmanship</t>
+  </si>
+  <si>
+    <t>items/books/item_book_swordmanship</t>
+  </si>
+  <si>
+    <t>item_book_marksmanship</t>
+  </si>
+  <si>
+    <t>items/books/item_book_marksmanship</t>
+  </si>
+  <si>
+    <t>item_elixir_zhuji</t>
+  </si>
+  <si>
+    <t>items/elixir/item_elixir_zhuji</t>
   </si>
 </sst>
 </file>
@@ -228,7 +249,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,12 +260,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -276,34 +291,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -345,28 +369,28 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F818D"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -622,47 +646,49 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="30.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="33.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="13" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="10" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="10" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="10" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="16" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="17" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="12" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="12" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="12" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -675,76 +701,78 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="3" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3"/>
+      <c r="W1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -758,100 +786,102 @@
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="R2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Z2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AA2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" s="1"/>
+      <c r="AK2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
@@ -863,70 +893,421 @@
       <c r="C3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3">
+        <v>30</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="S3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="T3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="8">
+      <c r="AF3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="3">
         <v>30</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="AH4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="3">
+        <v>30</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="8">
+      <c r="AH5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3">
+        <v>30</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" s="3">
         <v>0</v>
       </c>
-      <c r="T3" s="8">
-        <v>1</v>
-      </c>
-      <c r="U3" s="8">
-        <v>1</v>
-      </c>
-      <c r="V3" s="9">
-        <v>1</v>
-      </c>
-      <c r="W3" s="8">
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3">
         <v>0</v>
       </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1" t="s">
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="10">
+        <v>30</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" s="10">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>1</v>
+      </c>
+      <c r="W7" s="10">
+        <v>1</v>
+      </c>
+      <c r="X7" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3">
+        <v>30</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/lua_items.xlsx
+++ b/excels/lua_items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
   <si>
     <t>名字</t>
   </si>
@@ -238,10 +238,34 @@
     <t>items/books/item_book_marksmanship</t>
   </si>
   <si>
+    <t>item_book_xuanbingjue</t>
+  </si>
+  <si>
+    <t>items/books/item_book_xuanbingjue</t>
+  </si>
+  <si>
     <t>item_elixir_zhuji</t>
   </si>
   <si>
     <t>items/elixir/item_elixir_zhuji</t>
+  </si>
+  <si>
+    <t>item_elixir_jindan</t>
+  </si>
+  <si>
+    <t>items/elixir/item_elixir_jindan</t>
+  </si>
+  <si>
+    <t>item_elixir_yuanying</t>
+  </si>
+  <si>
+    <t>items/elixir/item_elixir_yuanying</t>
+  </si>
+  <si>
+    <t>item_fabao_embryo</t>
+  </si>
+  <si>
+    <t>items/elixir/item_fabao_embryo</t>
   </si>
 </sst>
 </file>
@@ -291,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -310,21 +334,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -646,49 +655,49 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="16" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="17" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="12" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="12" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="12" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="11" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="11" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="11" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="7" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="7" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="7" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="7" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -1168,70 +1177,70 @@
       <c r="AK6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="10">
+      <c r="Q7" s="3">
         <v>30</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="U7" s="10">
-        <v>0</v>
-      </c>
-      <c r="V7" s="10">
-        <v>1</v>
-      </c>
-      <c r="W7" s="10">
-        <v>1</v>
-      </c>
-      <c r="X7" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="10">
+      <c r="S7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3">
         <v>0</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="11"/>
+      <c r="AB7" s="4"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="7" t="s">
+      <c r="AE7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AF7" s="7" t="s">
+      <c r="AF7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="7" t="s">
+      <c r="AG7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AH7" s="7" t="s">
+      <c r="AH7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AI7" s="2"/>
@@ -1290,11 +1299,11 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="3"/>
+      <c r="AB8" s="4"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>63</v>
@@ -1308,6 +1317,290 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3">
+        <v>30</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3">
+        <v>30</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3">
+        <v>30</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3">
+        <v>30</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/lua_items.xlsx
+++ b/excels/lua_items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="113">
   <si>
     <t>名字</t>
   </si>
@@ -238,12 +238,48 @@
     <t>items/books/item_book_marksmanship</t>
   </si>
   <si>
+    <t>item_book_fentianjue</t>
+  </si>
+  <si>
+    <t>items/books/item_book_fentianjue</t>
+  </si>
+  <si>
     <t>item_book_xuanbingjue</t>
   </si>
   <si>
     <t>items/books/item_book_xuanbingjue</t>
   </si>
   <si>
+    <t>item_book_xilingji</t>
+  </si>
+  <si>
+    <t>items/books/item_book_xilingji</t>
+  </si>
+  <si>
+    <t>item_book_banshanjue</t>
+  </si>
+  <si>
+    <t>items/books/item_book_banshanjue</t>
+  </si>
+  <si>
+    <t>item_book_yuleizhenjing</t>
+  </si>
+  <si>
+    <t>items/books/item_book_yuleizhenjing</t>
+  </si>
+  <si>
+    <t>item_book_jingangjue</t>
+  </si>
+  <si>
+    <t>items/books/item_book_jingangjue</t>
+  </si>
+  <si>
+    <t>item_book_suiyuejing</t>
+  </si>
+  <si>
+    <t>items/books/item_book_suiyuejing</t>
+  </si>
+  <si>
     <t>item_elixir_zhuji</t>
   </si>
   <si>
@@ -266,6 +302,57 @@
   </si>
   <si>
     <t>items/elixir/item_fabao_embryo</t>
+  </si>
+  <si>
+    <t>item_perfect_stone</t>
+  </si>
+  <si>
+    <t>items/materials/item_perfect_stone</t>
+  </si>
+  <si>
+    <t>toughness 10</t>
+  </si>
+  <si>
+    <t>hardness 10</t>
+  </si>
+  <si>
+    <t>weight 10</t>
+  </si>
+  <si>
+    <t>fire 5</t>
+  </si>
+  <si>
+    <t>material_ability_1 1</t>
+  </si>
+  <si>
+    <t>philosophers_stone</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
+  </si>
+  <si>
+    <t>item_blueprint_sword</t>
+  </si>
+  <si>
+    <t>items/blueprints/item_blueprint_sword</t>
+  </si>
+  <si>
+    <t>blueprint_sword</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
+  </si>
+  <si>
+    <t>item_swrod</t>
+  </si>
+  <si>
+    <t>items/fabao/item_sword</t>
+  </si>
+  <si>
+    <t>paladin_sword</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
   </si>
 </sst>
 </file>
@@ -315,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -334,6 +421,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -655,49 +745,49 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="11" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="11" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="11" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="7" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="7" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="7" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="7" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="12" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="12" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="12" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="12" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="8" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="8" width="41.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="8" width="39.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -1176,7 +1266,7 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -1370,11 +1460,11 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="3"/>
+      <c r="AB9" s="4"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>63</v>
@@ -1441,11 +1531,11 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="3"/>
+      <c r="AB10" s="4"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>63</v>
@@ -1516,7 +1606,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>63</v>
@@ -1567,27 +1657,27 @@
         <v>61</v>
       </c>
       <c r="U12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="3">
         <v>0</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="3"/>
+      <c r="AB12" s="4"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>63</v>
@@ -1601,6 +1691,643 @@
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3">
+        <v>30</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3">
+        <v>30</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1</v>
+      </c>
+      <c r="W14" s="3">
+        <v>1</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3">
+        <v>30</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1</v>
+      </c>
+      <c r="W15" s="3">
+        <v>1</v>
+      </c>
+      <c r="X15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="3">
+        <v>30</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1</v>
+      </c>
+      <c r="W16" s="3">
+        <v>1</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="3">
+        <v>30</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="3">
+        <v>30</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="3">
+        <v>30</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1</v>
+      </c>
+      <c r="X19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3">
+        <v>30</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1</v>
+      </c>
+      <c r="W20" s="3">
+        <v>1</v>
+      </c>
+      <c r="X20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3">
+        <v>30</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>1</v>
+      </c>
+      <c r="W21" s="3">
+        <v>1</v>
+      </c>
+      <c r="X21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
